--- a/2023-05/202305/01_基本設計書/03_外部レビュー/【倉庫】基本設計書(在庫情報一覧)張卓群.xlsx
+++ b/2023-05/202305/01_基本設計書/03_外部レビュー/【倉庫】基本設計書(在庫情報一覧)張卓群.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\02_GIT\202305\2023-05\202305\01_基本設計書\03_外部レビュー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\OneDrive\デスクトップ\2023-05\2023-05\202305\01_基本設計書\03_外部レビュー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B0CEEF-CFF2-4F8A-910A-A574A254A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8456B18C-3C92-4481-94A0-E3512B9D6582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2535" yWindow="-16200" windowWidth="14565" windowHeight="15562" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在庫状況</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>ーー</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -356,19 +352,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>在庫状況:表から選択</t>
-    <rPh sb="0" eb="4">
-      <t>ｻﾞｲｺｼﾞｮｳｷｮｳ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ﾋｮｳ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ｾﾝﾀｸ</t>
-    </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>更新日時:YYYY/MM/DD形式で入力</t>
     <rPh sb="0" eb="2">
       <t>ｺｳｼﾝ</t>
@@ -426,25 +409,6 @@
   </si>
   <si>
     <t>＊</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在庫名称、在庫状況、更新日時の入力有無により、組み合わせた条件で検索を実施する</t>
-    <rPh sb="0" eb="2">
-      <t>ｻﾞｲｺ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ﾒｲｼｮｳ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ｻﾞｲｺｼﾞｮｳｷｮｳ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ｺｳｼﾝ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ﾆﾁｼﾞ</t>
-    </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -741,6 +705,45 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>ｹﾀ</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>ﾀﾝｲ</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在庫名称、単位、更新日時の入力有無により、組み合わせた条件で検索を実施する</t>
+    <rPh sb="0" eb="2">
+      <t>ｻﾞｲｺ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ﾒｲｼｮｳ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ﾀﾝｲ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ｺｳｼﾝ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ﾆﾁｼﾞ</t>
+    </rPh>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>単位:表から選択</t>
+    <rPh sb="0" eb="2">
+      <t>ﾀﾝｲ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ﾋｮｳ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ｾﾝﾀｸ</t>
     </rPh>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1373,6 +1376,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,23 +1427,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,12 +1454,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="182" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,22 +1505,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1493,55 +1541,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3568,9 +3571,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="20" customWidth="1"/>
-    <col min="7" max="32" width="4.1328125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="20" customWidth="1"/>
+    <col min="7" max="32" width="4.125" style="19" customWidth="1"/>
     <col min="33" max="36" width="4" style="19" customWidth="1"/>
     <col min="37" max="16384" width="9" style="19"/>
   </cols>
@@ -3822,72 +3825,72 @@
     </row>
     <row r="4" spans="1:176" ht="12.75" customHeight="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-      <c r="Q4" s="106"/>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="106"/>
-      <c r="Y4" s="106"/>
-      <c r="Z4" s="106"/>
-      <c r="AA4" s="106"/>
-      <c r="AB4" s="106"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="106"/>
-      <c r="AE4" s="106"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109"/>
       <c r="AF4" s="36"/>
     </row>
     <row r="5" spans="1:176" ht="12.75" customHeight="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="109"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="109"/>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="109"/>
+      <c r="S5" s="109"/>
+      <c r="T5" s="109"/>
+      <c r="U5" s="109"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="109"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="109"/>
+      <c r="Z5" s="109"/>
+      <c r="AA5" s="109"/>
+      <c r="AB5" s="109"/>
+      <c r="AC5" s="109"/>
+      <c r="AD5" s="109"/>
+      <c r="AE5" s="109"/>
       <c r="AF5" s="36"/>
     </row>
     <row r="6" spans="1:176" ht="12.75" customHeight="1">
@@ -4059,122 +4062,122 @@
     </row>
     <row r="11" spans="1:176" ht="12">
       <c r="A11" s="26"/>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="117" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="118"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="117" t="s">
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="119"/>
-      <c r="AB11" s="117" t="s">
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="104"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="117" t="s">
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AE11" s="119"/>
+      <c r="AE11" s="105"/>
       <c r="AF11" s="47"/>
     </row>
     <row r="12" spans="1:176" ht="12">
       <c r="A12" s="26"/>
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="108"/>
-      <c r="Q12" s="108"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="108"/>
-      <c r="T12" s="108"/>
-      <c r="U12" s="108"/>
-      <c r="V12" s="108"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="108"/>
-      <c r="Y12" s="108"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="109"/>
-      <c r="AB12" s="113" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="107" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE12" s="109"/>
+      <c r="AC12" s="117"/>
+      <c r="AD12" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE12" s="112"/>
       <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:176" ht="12">
       <c r="A13" s="26"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="111"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="111"/>
-      <c r="Q13" s="111"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-      <c r="W13" s="111"/>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="112"/>
-      <c r="AB13" s="115"/>
-      <c r="AC13" s="116"/>
-      <c r="AD13" s="110"/>
-      <c r="AE13" s="112"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="114"/>
+      <c r="Q13" s="114"/>
+      <c r="R13" s="114"/>
+      <c r="S13" s="114"/>
+      <c r="T13" s="114"/>
+      <c r="U13" s="114"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="114"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="115"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="119"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="115"/>
       <c r="AF13" s="47"/>
     </row>
     <row r="14" spans="1:176" ht="12.75" customHeight="1">
@@ -4523,12 +4526,12 @@
       <c r="C24" s="101"/>
       <c r="D24" s="101"/>
       <c r="E24" s="102"/>
-      <c r="F24" s="103">
+      <c r="F24" s="106">
         <v>45047</v>
       </c>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="105"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
       <c r="J24" s="100" t="s">
         <v>14</v>
       </c>
@@ -4551,7 +4554,7 @@
       <c r="AA24" s="101"/>
       <c r="AB24" s="102"/>
       <c r="AC24" s="100" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD24" s="101"/>
       <c r="AE24" s="102"/>
@@ -4563,10 +4566,10 @@
       <c r="C25" s="101"/>
       <c r="D25" s="101"/>
       <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="105"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
       <c r="J25" s="100"/>
       <c r="K25" s="101"/>
       <c r="L25" s="101"/>
@@ -4597,10 +4600,10 @@
       <c r="C26" s="101"/>
       <c r="D26" s="101"/>
       <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
       <c r="J26" s="100"/>
       <c r="K26" s="101"/>
       <c r="L26" s="101"/>
@@ -4631,10 +4634,10 @@
       <c r="C27" s="101"/>
       <c r="D27" s="101"/>
       <c r="E27" s="102"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
       <c r="J27" s="100"/>
       <c r="K27" s="101"/>
       <c r="L27" s="101"/>
@@ -4665,10 +4668,10 @@
       <c r="C28" s="101"/>
       <c r="D28" s="101"/>
       <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="105"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="108"/>
       <c r="J28" s="100"/>
       <c r="K28" s="101"/>
       <c r="L28" s="101"/>
@@ -4699,10 +4702,10 @@
       <c r="C29" s="101"/>
       <c r="D29" s="101"/>
       <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="105"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="108"/>
       <c r="J29" s="100"/>
       <c r="K29" s="101"/>
       <c r="L29" s="101"/>
@@ -4733,10 +4736,10 @@
       <c r="C30" s="101"/>
       <c r="D30" s="101"/>
       <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="105"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
       <c r="J30" s="100"/>
       <c r="K30" s="101"/>
       <c r="L30" s="101"/>
@@ -4767,10 +4770,10 @@
       <c r="C31" s="101"/>
       <c r="D31" s="101"/>
       <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="105"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="107"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
       <c r="J31" s="100"/>
       <c r="K31" s="101"/>
       <c r="L31" s="101"/>
@@ -4801,10 +4804,10 @@
       <c r="C32" s="101"/>
       <c r="D32" s="101"/>
       <c r="E32" s="102"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="105"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="100"/>
       <c r="K32" s="101"/>
       <c r="L32" s="101"/>
@@ -4835,10 +4838,10 @@
       <c r="C33" s="101"/>
       <c r="D33" s="101"/>
       <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="105"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="108"/>
       <c r="J33" s="100"/>
       <c r="K33" s="101"/>
       <c r="L33" s="101"/>
@@ -4869,10 +4872,10 @@
       <c r="C34" s="101"/>
       <c r="D34" s="101"/>
       <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="105"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="108"/>
       <c r="J34" s="100"/>
       <c r="K34" s="101"/>
       <c r="L34" s="101"/>
@@ -4903,10 +4906,10 @@
       <c r="C35" s="101"/>
       <c r="D35" s="101"/>
       <c r="E35" s="102"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="108"/>
       <c r="J35" s="100"/>
       <c r="K35" s="101"/>
       <c r="L35" s="101"/>
@@ -4937,10 +4940,10 @@
       <c r="C36" s="101"/>
       <c r="D36" s="101"/>
       <c r="E36" s="102"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="108"/>
       <c r="J36" s="100"/>
       <c r="K36" s="101"/>
       <c r="L36" s="101"/>
@@ -4971,10 +4974,10 @@
       <c r="C37" s="101"/>
       <c r="D37" s="101"/>
       <c r="E37" s="102"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="105"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="108"/>
       <c r="J37" s="100"/>
       <c r="K37" s="101"/>
       <c r="L37" s="101"/>
@@ -5005,10 +5008,10 @@
       <c r="C38" s="101"/>
       <c r="D38" s="101"/>
       <c r="E38" s="102"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="105"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="108"/>
       <c r="J38" s="100"/>
       <c r="K38" s="101"/>
       <c r="L38" s="101"/>
@@ -5039,10 +5042,10 @@
       <c r="C39" s="101"/>
       <c r="D39" s="101"/>
       <c r="E39" s="102"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="105"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="100"/>
       <c r="K39" s="101"/>
       <c r="L39" s="101"/>
@@ -5073,10 +5076,10 @@
       <c r="C40" s="101"/>
       <c r="D40" s="101"/>
       <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="105"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="108"/>
       <c r="J40" s="100"/>
       <c r="K40" s="101"/>
       <c r="L40" s="101"/>
@@ -5137,73 +5140,6 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="M11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="J34:AB34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="J35:AB35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="J39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="J36:AB36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:AB37"/>
-    <mergeCell ref="AC37:AE37"/>
     <mergeCell ref="B40:E40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:AB40"/>
@@ -5220,6 +5156,73 @@
     <mergeCell ref="AC38:AE38"/>
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="J36:AB36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:AB37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="J34:AB34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="J35:AB35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5242,179 +5245,179 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="19" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="20" customWidth="1"/>
-    <col min="7" max="33" width="4.1328125" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="19" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="20" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="19" customWidth="1"/>
     <col min="34" max="37" width="4" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="122"/>
+      <c r="T1" s="122"/>
+      <c r="U1" s="122"/>
+      <c r="V1" s="122"/>
+      <c r="W1" s="122"/>
+      <c r="X1" s="122"/>
+      <c r="Y1" s="122"/>
+      <c r="Z1" s="122"/>
+      <c r="AA1" s="122"/>
+      <c r="AB1" s="122"/>
+      <c r="AC1" s="122"/>
+      <c r="AD1" s="122"/>
+      <c r="AE1" s="122"/>
+      <c r="AF1" s="122"/>
+      <c r="AG1" s="122"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="117" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="117" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="119"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="105"/>
       <c r="AD2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="32"/>
-      <c r="AF2" s="117" t="s">
+      <c r="AF2" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="119"/>
+      <c r="AG2" s="105"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="107" t="str">
+      <c r="A3" s="110" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="107">
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="110">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="113" t="str">
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="116" t="str">
         <f>表紙!M12</f>
         <v>在庫情報一覧（画面）</v>
       </c>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="107" t="str">
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120"/>
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120"/>
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="110" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="107" t="str">
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="110" t="str">
         <f>表紙!AD12</f>
         <v>張卓群</v>
       </c>
-      <c r="AG3" s="109"/>
+      <c r="AG3" s="112"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="112"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="121"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="121"/>
+      <c r="Q4" s="121"/>
+      <c r="R4" s="121"/>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="115"/>
+      <c r="AF4" s="113"/>
+      <c r="AG4" s="115"/>
     </row>
     <row r="5" spans="1:177" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="21"/>
@@ -6854,16 +6857,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:AG1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:AC2"/>
+    <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AD3:AE4"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="A3:F4"/>
     <mergeCell ref="G3:L4"/>
     <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:AC2"/>
-    <mergeCell ref="AF2:AG2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -6882,184 +6885,184 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC15" sqref="AC15:AD15"/>
+      <selection pane="bottomLeft" activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1328125" style="50" customWidth="1"/>
-    <col min="5" max="6" width="4.1328125" style="73" customWidth="1"/>
-    <col min="7" max="33" width="4.1328125" style="50" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="50" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="73" customWidth="1"/>
+    <col min="7" max="33" width="4.125" style="50" customWidth="1"/>
     <col min="34" max="37" width="4" style="50" customWidth="1"/>
     <col min="38" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="129"/>
+      <c r="U1" s="129"/>
+      <c r="V1" s="129"/>
+      <c r="W1" s="129"/>
+      <c r="X1" s="129"/>
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
     </row>
     <row r="2" spans="1:177" ht="12">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="149" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="149" t="s">
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="151"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="132"/>
       <c r="AD2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AE2" s="52"/>
-      <c r="AF2" s="149" t="s">
+      <c r="AF2" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="151"/>
+      <c r="AG2" s="132"/>
     </row>
     <row r="3" spans="1:177" ht="12">
-      <c r="A3" s="131" t="str">
+      <c r="A3" s="123" t="str">
         <f>表紙!B12</f>
         <v>倉庫管理システム</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="154">
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="146">
         <f>表紙!G12</f>
         <v>0</v>
       </c>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="137" t="str">
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="147"/>
+      <c r="L3" s="148"/>
+      <c r="M3" s="152" t="str">
         <f>表紙!M12</f>
         <v>在庫情報一覧（画面）</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="138"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="131" t="str">
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="153"/>
+      <c r="T3" s="153"/>
+      <c r="U3" s="153"/>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="153"/>
+      <c r="Y3" s="153"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="123" t="str">
         <f>表紙!AB12</f>
         <v>TPC</v>
       </c>
-      <c r="AE3" s="133"/>
-      <c r="AF3" s="131" t="str">
+      <c r="AE3" s="124"/>
+      <c r="AF3" s="123" t="str">
         <f>表紙!AD12</f>
         <v>張卓群</v>
       </c>
-      <c r="AG3" s="133"/>
+      <c r="AG3" s="124"/>
     </row>
     <row r="4" spans="1:177" ht="12">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="157"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="142"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="134"/>
-      <c r="AG4" s="136"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156"/>
+      <c r="P4" s="156"/>
+      <c r="Q4" s="156"/>
+      <c r="R4" s="156"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="157"/>
+      <c r="AD4" s="125"/>
+      <c r="AE4" s="126"/>
+      <c r="AF4" s="125"/>
+      <c r="AG4" s="126"/>
     </row>
     <row r="5" spans="1:177" s="60" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="53"/>
@@ -7275,7 +7278,7 @@
       <c r="AF6" s="62"/>
       <c r="AG6" s="63"/>
       <c r="AJ6" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:177" ht="12.75" customHeight="1">
@@ -7297,19 +7300,19 @@
       <c r="L7" s="65"/>
       <c r="M7" s="65"/>
       <c r="N7" s="65"/>
-      <c r="O7" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="P7" s="65"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="65" t="s">
+        <v>111</v>
+      </c>
       <c r="Q7" s="65"/>
       <c r="R7" s="65"/>
       <c r="S7" s="77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T7" s="67"/>
       <c r="U7" s="67"/>
       <c r="V7" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W7" s="65"/>
       <c r="X7" s="65"/>
@@ -7323,7 +7326,7 @@
       <c r="AF7" s="65"/>
       <c r="AG7" s="69"/>
       <c r="AK7" s="50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:177" ht="12.75" customHeight="1">
@@ -7361,14 +7364,14 @@
       <c r="AF8" s="65"/>
       <c r="AG8" s="69"/>
       <c r="AK8" s="50" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:177" ht="12.75" customHeight="1">
       <c r="A9" s="64"/>
       <c r="B9" s="65"/>
       <c r="C9" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -7396,22 +7399,22 @@
       <c r="U9" s="70"/>
       <c r="V9" s="70"/>
       <c r="W9" s="65"/>
-      <c r="X9" s="123" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="123"/>
+      <c r="X9" s="127" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y9" s="127"/>
       <c r="Z9" s="65"/>
-      <c r="AA9" s="123" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB9" s="124"/>
+      <c r="AA9" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB9" s="128"/>
       <c r="AC9" s="65"/>
       <c r="AD9" s="65"/>
       <c r="AE9" s="65"/>
       <c r="AF9" s="65"/>
       <c r="AG9" s="69"/>
       <c r="AK9" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:177" ht="12.75" customHeight="1">
@@ -7484,26 +7487,26 @@
       <c r="AF11" s="65"/>
       <c r="AG11" s="69"/>
       <c r="AI11" s="50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AJ11" s="50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AL11" s="50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:177" ht="12.75" customHeight="1">
       <c r="A12" s="64"/>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="128"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="127" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="124"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
       <c r="I12" s="65"/>
@@ -7532,7 +7535,7 @@
       <c r="AF12" s="65"/>
       <c r="AG12" s="69"/>
       <c r="AJ12" s="50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:177" ht="12.75" customHeight="1">
@@ -7570,78 +7573,78 @@
       <c r="AF13" s="65"/>
       <c r="AG13" s="69"/>
       <c r="AJ13" s="50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AL13" s="50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:177" ht="12.75" customHeight="1">
       <c r="A14" s="64"/>
-      <c r="B14" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="126"/>
-      <c r="D14" s="124" t="s">
+      <c r="B14" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="134"/>
+      <c r="D14" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124" t="s">
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124" t="s">
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="124" t="s">
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="124"/>
-      <c r="O14" s="124" t="s">
+      <c r="N14" s="128"/>
+      <c r="O14" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="144" t="s">
+      <c r="P14" s="128"/>
+      <c r="Q14" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="R14" s="144"/>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="126"/>
-      <c r="V14" s="143" t="s">
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="134"/>
+      <c r="V14" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="146" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="137" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="138"/>
       <c r="AE14" s="78"/>
       <c r="AG14" s="79"/>
       <c r="AJ14" s="50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AL14" s="50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:177" ht="12.75" customHeight="1">
       <c r="A15" s="64"/>
-      <c r="B15" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="126"/>
+      <c r="B15" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="134"/>
       <c r="D15" s="66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="68"/>
@@ -7655,45 +7658,45 @@
       </c>
       <c r="K15" s="67"/>
       <c r="L15" s="68"/>
-      <c r="M15" s="129">
+      <c r="M15" s="144">
         <v>666</v>
       </c>
-      <c r="N15" s="130"/>
-      <c r="O15" s="127" t="s">
+      <c r="N15" s="145"/>
+      <c r="O15" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="P15" s="128"/>
-      <c r="Q15" s="144" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="144"/>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="126"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="135" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="134"/>
       <c r="V15" s="81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W15" s="67"/>
       <c r="X15" s="67"/>
       <c r="Y15" s="67"/>
       <c r="Z15" s="68"/>
-      <c r="AA15" s="143" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB15" s="126"/>
-      <c r="AC15" s="145" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD15" s="145"/>
+      <c r="AA15" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB15" s="134"/>
+      <c r="AC15" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD15" s="136"/>
       <c r="AE15" s="82" t="s">
         <v>29</v>
       </c>
       <c r="AG15" s="79"/>
       <c r="AJ15" s="50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AL15" s="50" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:177" ht="12.75" customHeight="1">
@@ -7730,7 +7733,7 @@
       <c r="AE16" s="82"/>
       <c r="AG16" s="79"/>
       <c r="AJ16" s="50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="12.75" customHeight="1">
@@ -7766,7 +7769,7 @@
       <c r="AE17" s="82"/>
       <c r="AG17" s="79"/>
       <c r="AJ17" s="50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="12.75" customHeight="1">
@@ -7802,10 +7805,10 @@
       <c r="AE18" s="82"/>
       <c r="AG18" s="79"/>
       <c r="AJ18" s="50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AM18" s="50" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="12.75" customHeight="1">
@@ -7973,7 +7976,7 @@
       <c r="AE23" s="82"/>
       <c r="AG23" s="79"/>
       <c r="AJ23" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="12.75" customHeight="1">
@@ -8009,7 +8012,7 @@
       <c r="AE24" s="82"/>
       <c r="AG24" s="79"/>
       <c r="AK24" s="50" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="12.75" customHeight="1">
@@ -8045,7 +8048,7 @@
       <c r="AE25" s="82"/>
       <c r="AG25" s="79"/>
       <c r="AK25" s="50" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="12.75" customHeight="1">
@@ -8114,7 +8117,7 @@
       <c r="AE27" s="82"/>
       <c r="AG27" s="79"/>
       <c r="AJ27" s="50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="12.75" customHeight="1">
@@ -8150,7 +8153,7 @@
       <c r="AE28" s="82"/>
       <c r="AG28" s="79"/>
       <c r="AK28" s="50" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="12.75" customHeight="1">
@@ -8219,7 +8222,7 @@
       <c r="AE30" s="82"/>
       <c r="AG30" s="79"/>
       <c r="AJ30" s="50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="12.75" customHeight="1">
@@ -8255,7 +8258,7 @@
       <c r="AE31" s="82"/>
       <c r="AG31" s="79"/>
       <c r="AK31" s="50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:39" ht="12.75" customHeight="1">
@@ -8324,7 +8327,7 @@
       <c r="AE33" s="82"/>
       <c r="AG33" s="79"/>
       <c r="AJ33" s="50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="12.75" customHeight="1">
@@ -8361,7 +8364,7 @@
       <c r="AG34" s="79"/>
       <c r="AJ34" s="91"/>
       <c r="AK34" s="50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="12.75" customHeight="1">
@@ -8397,7 +8400,7 @@
       <c r="AE35" s="82"/>
       <c r="AG35" s="79"/>
       <c r="AK35" s="50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="12.75" customHeight="1">
@@ -8433,7 +8436,7 @@
       <c r="AE36" s="82"/>
       <c r="AG36" s="79"/>
       <c r="AK36" s="50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="12.75" customHeight="1">
@@ -8469,7 +8472,7 @@
       <c r="AE37" s="82"/>
       <c r="AG37" s="79"/>
       <c r="AK37" s="50" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="12.75" customHeight="1">
@@ -8697,6 +8700,25 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G3:L4"/>
+    <mergeCell ref="M3:AC4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q15:U15"/>
     <mergeCell ref="AF3:AG4"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="AA9:AB9"/>
@@ -8706,26 +8728,7 @@
     <mergeCell ref="M2:AC2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AD3:AE4"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="V14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:U14"/>
     <mergeCell ref="A3:F4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G3:L4"/>
-    <mergeCell ref="M3:AC4"/>
-    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -8746,14 +8749,14 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8824,7 +8827,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="152" t="s">
+      <c r="A7" s="158" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -8842,7 +8845,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" customHeight="1">
-      <c r="A8" s="153"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="38.25">
+    <row r="13" spans="1:6" ht="40.5">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="38.25">
+    <row r="14" spans="1:6" ht="40.5">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
@@ -9020,10 +9023,10 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>